--- a/src/main/resources/AutotestData.xlsx
+++ b/src/main/resources/AutotestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misai\eclipse-workspace\com.progressive\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B37FC06-43DE-4E3A-80A8-464E8A5E391D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C5A89-CD7B-4CFE-BB08-57236369CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C28F9CCB-0536-4218-9C38-A91247FD0E8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C28F9CCB-0536-4218-9C38-A91247FD0E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Maps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>Test No</t>
   </si>
@@ -548,14 +548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF704465-2895-4E13-89CD-A1FD84056CEB}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -755,12 +756,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCAEBC5-CFDA-4312-BA07-A1F7F70DE712}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/AutotestData.xlsx
+++ b/src/main/resources/AutotestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misai\eclipse-workspace\com.progressive\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C5A89-CD7B-4CFE-BB08-57236369CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE0F2F4-AA2E-4444-9606-7E7B419DC281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C28F9CCB-0536-4218-9C38-A91247FD0E8D}"/>
   </bookViews>
@@ -227,11 +227,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +762,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,192 +775,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
